--- a/NEW HR/DONE/DE SAGUN, NANCY.xlsx
+++ b/NEW HR/DONE/DE SAGUN, NANCY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -697,17 +697,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -717,6 +714,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,7 +1247,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1641,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1700,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1765,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1808,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2135,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2259,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2315,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2499,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2555,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3028,12 +3028,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K124"/>
+  <dimension ref="A2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,14 +3063,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3081,14 +3081,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3101,16 +3101,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3136,18 +3136,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>45.709000000000003</v>
+        <v>44.709000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <f t="shared" ref="A86:A96" si="0">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A97" si="0">EDATE(A85,1)</f>
         <v>44986</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -4933,11 +4933,10 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <f t="shared" si="0"/>
-        <v>45078</v>
-      </c>
-      <c r="B89" s="20"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -4946,15 +4945,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49">
+        <v>45075</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <f t="shared" si="0"/>
-        <v>45108</v>
+        <f>EDATE(A88,1)</f>
+        <v>45078</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4973,7 +4976,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4992,7 +4995,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5011,7 +5014,7 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5030,7 +5033,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5049,7 +5052,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5068,7 +5071,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5085,7 +5088,10 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5517,34 +5523,50 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="43"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="43"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="39"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="15"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="43"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5612,14 +5634,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5632,14 +5654,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5652,16 +5674,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5687,18 +5709,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/DE SAGUN, NANCY.xlsx
+++ b/NEW HR/DONE/DE SAGUN, NANCY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C908D2A-31F4-4F41-96E4-CECDAAD5D9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -313,12 +314,18 @@
   </si>
   <si>
     <t>4/24-28/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/22-23/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -697,14 +704,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -714,9 +724,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,7 +1254,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1297,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1421,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1487,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1550,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1648,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1707,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1772,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1815,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1890,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2076,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2142,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2200,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2266,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2322,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2397,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2440,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2506,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2562,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2641,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2651,25 +2658,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2681,25 +2688,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3006,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3016,7 +3023,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3024,34 +3031,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3063,16 +3070,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3081,16 +3088,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3101,18 +3108,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3120,7 +3127,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3133,24 +3140,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3194,7 +3201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>34.709000000000003</v>
+        <v>36.959000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3204,12 +3211,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>44.709000000000003</v>
+        <v>43.959000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3231,7 +3238,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3244,7 +3251,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.334000000000003</v>
+        <v>52.584000000000003</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -3260,7 +3267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3280,7 +3287,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3300,7 +3307,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3320,7 +3327,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3346,7 +3353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3366,7 +3373,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3386,7 +3393,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3406,7 +3413,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3430,7 +3437,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>43</v>
@@ -3452,7 +3459,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3478,7 +3485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3524,7 +3531,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -3542,7 +3549,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3568,7 +3575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3594,7 +3601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3640,7 +3647,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3666,7 +3673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3692,7 +3699,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3712,7 +3719,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3738,7 +3745,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3758,7 +3765,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3810,7 +3817,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3832,7 +3839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -3880,7 +3887,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>67</v>
       </c>
@@ -3898,7 +3905,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3918,7 +3925,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -3938,7 +3945,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -3958,7 +3965,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -3978,7 +3985,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -3998,7 +4005,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4018,7 +4025,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4038,7 +4045,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44057</v>
       </c>
@@ -4058,7 +4065,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44064</v>
       </c>
@@ -4078,7 +4085,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4098,7 +4105,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>75</v>
@@ -4144,7 +4151,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>76</v>
@@ -4166,7 +4173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -4188,7 +4195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>51</v>
@@ -4210,7 +4217,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -4230,7 +4237,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -4250,7 +4257,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>80</v>
       </c>
@@ -4268,7 +4275,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4288,7 +4295,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4308,7 +4315,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4328,7 +4335,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4348,7 +4355,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4368,7 +4375,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4388,7 +4395,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4408,7 +4415,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4428,7 +4435,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4448,7 +4455,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4468,7 +4475,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4488,7 +4495,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4512,7 +4519,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -4530,7 +4537,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4550,7 +4557,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4570,7 +4577,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4590,7 +4597,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4610,7 +4617,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4630,7 +4637,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44713</v>
       </c>
@@ -4650,7 +4657,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44743</v>
       </c>
@@ -4670,7 +4677,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44774</v>
       </c>
@@ -4690,7 +4697,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44805</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44835</v>
       </c>
@@ -4742,7 +4749,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44866</v>
       </c>
@@ -4768,7 +4775,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44896</v>
       </c>
@@ -4794,7 +4801,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>89</v>
       </c>
@@ -4812,7 +4819,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44927</v>
       </c>
@@ -4832,7 +4839,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>44958</v>
@@ -4853,7 +4860,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" ref="A86:A97" si="0">EDATE(A85,1)</f>
         <v>44986</v>
@@ -4880,20 +4887,18 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f>EDATE(A86,1)</f>
         <v>45017</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39">
-        <v>1</v>
-      </c>
+      <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
@@ -4907,7 +4912,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -4915,13 +4920,15 @@
       <c r="B88" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39">
         <v>5</v>
@@ -4932,7 +4939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>51</v>
@@ -4954,12 +4961,14 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A88,1)</f>
         <v>45078</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -4968,12 +4977,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -4992,7 +5005,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -5011,7 +5024,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -5030,7 +5043,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -5049,7 +5062,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -5068,7 +5081,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -5087,7 +5100,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -5106,7 +5119,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5122,7 +5135,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5138,7 +5151,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5154,7 +5167,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5170,7 +5183,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5186,7 +5199,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5202,7 +5215,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5218,7 +5231,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5234,7 +5247,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5250,7 +5263,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5266,7 +5279,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5282,7 +5295,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5298,7 +5311,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5314,7 +5327,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5330,7 +5343,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5346,7 +5359,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5362,7 +5375,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5378,7 +5391,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5394,7 +5407,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5410,7 +5423,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5426,7 +5439,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5442,7 +5455,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5458,7 +5471,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5474,7 +5487,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5490,7 +5503,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5506,7 +5519,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5522,7 +5535,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5538,7 +5551,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="15"/>
       <c r="C125" s="42"/>
@@ -5556,23 +5569,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5595,34 +5608,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="D9:I9"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5634,16 +5647,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5654,16 +5667,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5674,18 +5687,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5693,7 +5706,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5706,24 +5719,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5758,7 +5771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5782,7 +5795,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5804,7 +5817,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5826,7 +5839,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5850,7 +5863,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -5872,7 +5885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43405</v>
       </c>
@@ -5896,7 +5909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>54</v>
       </c>
@@ -5914,7 +5927,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43466</v>
       </c>
@@ -5938,7 +5951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43497</v>
       </c>
@@ -5962,7 +5975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43647</v>
       </c>
@@ -5986,7 +5999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
@@ -6004,7 +6017,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6028,7 +6041,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>51</v>
@@ -6050,7 +6063,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -6072,7 +6085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -6094,7 +6107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -6118,7 +6131,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -6142,7 +6155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44057</v>
       </c>
@@ -6162,7 +6175,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44064</v>
       </c>
@@ -6186,7 +6199,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -6210,7 +6223,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>75</v>
@@ -6230,7 +6243,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6252,7 +6265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -6274,7 +6287,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>82</v>
       </c>
@@ -6292,7 +6305,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44805</v>
       </c>
@@ -6316,7 +6329,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44835</v>
       </c>
@@ -6340,7 +6353,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6356,7 +6369,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6372,7 +6385,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6388,7 +6401,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6404,7 +6417,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6420,7 +6433,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6436,7 +6449,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6452,7 +6465,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6468,7 +6481,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6484,7 +6497,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6500,7 +6513,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6516,7 +6529,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6532,7 +6545,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6548,7 +6561,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6564,7 +6577,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6580,7 +6593,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6596,7 +6609,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6612,7 +6625,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6628,7 +6641,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6644,7 +6657,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6660,7 +6673,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6676,7 +6689,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6692,7 +6705,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6708,7 +6721,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6724,7 +6737,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6740,7 +6753,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6756,7 +6769,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6772,7 +6785,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6788,7 +6801,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6804,7 +6817,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6820,7 +6833,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6836,7 +6849,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6852,7 +6865,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6868,7 +6881,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6884,7 +6897,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6900,7 +6913,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6916,7 +6929,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6932,7 +6945,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6948,7 +6961,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6964,7 +6977,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6980,7 +6993,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6996,7 +7009,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -7027,10 +7040,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7053,28 +7066,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7087,7 +7100,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7116,7 +7129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>15.625</v>
       </c>
@@ -7140,17 +7153,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7171,7 +7184,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7198,7 +7211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7224,7 +7237,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7250,7 +7263,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7276,7 +7289,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7302,7 +7315,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7328,7 +7341,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7354,7 +7367,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7380,7 +7393,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7400,7 +7413,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7420,7 +7433,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7440,7 +7453,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7461,7 +7474,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7482,7 +7495,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7503,7 +7516,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7524,7 +7537,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7545,7 +7558,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7566,7 +7579,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7587,7 +7600,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7608,7 +7621,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7629,7 +7642,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7650,7 +7663,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7671,7 +7684,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7692,7 +7705,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7713,7 +7726,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7734,7 +7747,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7755,7 +7768,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7776,7 +7789,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7797,7 +7810,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7818,7 +7831,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7839,7 +7852,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7860,7 +7873,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7869,7 +7882,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7878,7 +7891,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7887,7 +7900,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7896,7 +7909,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7905,7 +7918,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7914,7 +7927,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7923,7 +7936,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7932,7 +7945,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7941,7 +7954,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7950,7 +7963,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7959,7 +7972,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7968,7 +7981,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7977,7 +7990,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7986,7 +7999,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7995,7 +8008,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8004,7 +8017,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8013,7 +8026,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8022,7 +8035,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8031,7 +8044,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8040,7 +8053,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8049,7 +8062,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8058,7 +8071,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8067,7 +8080,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8076,7 +8089,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8085,7 +8098,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8094,7 +8107,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8103,7 +8116,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8112,7 +8125,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8121,7 +8134,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DE SAGUN, NANCY.xlsx
+++ b/NEW HR/DONE/DE SAGUN, NANCY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C908D2A-31F4-4F41-96E4-CECDAAD5D9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D1D039-92B9-45C6-9619-E58059F1393E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -704,17 +704,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -724,6 +721,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2658,7 +2658,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K126" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
@@ -3035,12 +3035,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K125"/>
+  <dimension ref="A2:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3070,14 +3070,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3088,14 +3088,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3108,16 +3108,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3143,18 +3143,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3201,7 +3201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>36.959000000000003</v>
+        <v>37.209000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3211,7 +3211,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>43.959000000000003</v>
+        <v>44.209000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3251,7 +3251,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.584000000000003</v>
+        <v>52.834000000000003</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -4862,7 +4862,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <f t="shared" ref="A86:A97" si="0">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A98" si="0">EDATE(A85,1)</f>
         <v>44986</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -4969,13 +4969,15 @@
       <c r="B90" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39">
         <v>2</v>
@@ -4991,7 +4993,9 @@
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -5000,19 +5004,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40">
-        <f t="shared" si="0"/>
-        <v>45139</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>1</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -5022,12 +5031,14 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>45117</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <f t="shared" si="0"/>
-        <v>45170</v>
+        <f>EDATE(A91,1)</f>
+        <v>45139</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5046,7 +5057,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5065,7 +5076,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5084,7 +5095,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5103,7 +5114,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5120,7 +5131,10 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5552,34 +5566,50 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="41"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="43"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="43"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="15"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="41"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="43"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5647,14 +5677,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5667,14 +5697,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5687,16 +5717,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5722,18 +5752,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/NEW HR/DONE/DE SAGUN, NANCY.xlsx
+++ b/NEW HR/DONE/DE SAGUN, NANCY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D1D039-92B9-45C6-9619-E58059F1393E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD41FA9-C549-46AA-A102-2F33BFAE0DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -704,14 +704,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -721,9 +724,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2658,7 +2658,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K126" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
@@ -3035,12 +3035,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K126"/>
+  <dimension ref="A2:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3070,14 +3070,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3088,14 +3088,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3108,16 +3108,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3143,18 +3143,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3211,7 +3211,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>44.209000000000003</v>
+        <v>43.209000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <f t="shared" ref="A86:A98" si="0">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A99" si="0">EDATE(A85,1)</f>
         <v>44986</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -5036,11 +5036,10 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40">
-        <f>EDATE(A91,1)</f>
-        <v>45139</v>
-      </c>
-      <c r="B93" s="20"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
@@ -5049,15 +5048,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="39">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="49">
+        <v>45133</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <f t="shared" si="0"/>
-        <v>45170</v>
+        <f>EDATE(A91,1)</f>
+        <v>45139</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5076,7 +5079,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5095,7 +5098,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5114,7 +5117,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5133,7 +5136,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5150,7 +5153,10 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5582,34 +5588,50 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="41"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="43"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="43"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="15"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="41"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="43"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5677,14 +5699,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5697,14 +5719,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5717,16 +5739,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5752,18 +5774,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/NEW HR/DONE/DE SAGUN, NANCY.xlsx
+++ b/NEW HR/DONE/DE SAGUN, NANCY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD41FA9-C549-46AA-A102-2F33BFAE0DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -325,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1254,7 +1253,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1296,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1360,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1420,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1486,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1549,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1647,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1706,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1771,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1814,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1889,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2075,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2141,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2199,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2265,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2321,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2396,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2439,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2505,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2561,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2640,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2658,25 +2657,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2688,25 +2687,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3013,7 +3012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3023,7 +3022,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3031,34 +3030,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K127"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A83" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3079,7 +3078,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3097,7 +3096,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3119,7 +3118,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3127,7 +3126,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3140,7 +3139,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3157,7 +3156,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3201,7 +3200,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>37.209000000000003</v>
+        <v>37.459000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3211,12 +3210,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>43.209000000000003</v>
+        <v>42.459000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3238,7 +3237,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.834000000000003</v>
+        <v>53.084000000000003</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -3267,7 +3266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3287,7 +3286,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3307,7 +3306,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3327,7 +3326,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3373,7 +3372,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3393,7 +3392,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3413,7 +3412,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3437,7 +3436,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>43</v>
@@ -3459,7 +3458,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3531,7 +3530,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -3549,7 +3548,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3765,7 +3764,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3839,7 +3838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -3887,7 +3886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>67</v>
       </c>
@@ -3905,7 +3904,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3925,7 +3924,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -3945,7 +3944,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -3965,7 +3964,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -3985,7 +3984,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4005,7 +4004,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4025,7 +4024,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4045,7 +4044,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44057</v>
       </c>
@@ -4065,7 +4064,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44064</v>
       </c>
@@ -4085,7 +4084,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4105,7 +4104,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>75</v>
@@ -4151,7 +4150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>76</v>
@@ -4173,7 +4172,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -4195,7 +4194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>51</v>
@@ -4217,7 +4216,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -4237,7 +4236,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -4257,7 +4256,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>80</v>
       </c>
@@ -4275,7 +4274,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4315,7 +4314,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4335,7 +4334,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4355,7 +4354,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4375,7 +4374,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4395,7 +4394,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4415,7 +4414,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4435,7 +4434,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4455,7 +4454,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4475,7 +4474,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4495,7 +4494,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4519,7 +4518,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -4537,7 +4536,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4557,7 +4556,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4577,7 +4576,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4597,7 +4596,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4617,7 +4616,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4637,7 +4636,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44713</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44743</v>
       </c>
@@ -4677,7 +4676,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44774</v>
       </c>
@@ -4697,7 +4696,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44805</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44835</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44866</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44896</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>89</v>
       </c>
@@ -4819,7 +4818,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44927</v>
       </c>
@@ -4839,7 +4838,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>44958</v>
@@ -4860,9 +4859,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <f t="shared" ref="A86:A99" si="0">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A101" si="0">EDATE(A85,1)</f>
         <v>44986</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -4887,7 +4886,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A86,1)</f>
         <v>45017</v>
@@ -4912,7 +4911,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -4939,7 +4938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>51</v>
@@ -4961,7 +4960,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A88,1)</f>
         <v>45078</v>
@@ -4988,7 +4987,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -4996,13 +4995,15 @@
       <c r="B91" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39">
         <v>1</v>
@@ -5013,7 +5014,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>43</v>
@@ -5035,7 +5036,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>51</v>
@@ -5057,14 +5058,18 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A91,1)</f>
         <v>45139</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+      <c r="D94" s="39">
+        <v>1</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -5074,14 +5079,15 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40">
-        <f t="shared" si="0"/>
-        <v>45170</v>
-      </c>
-      <c r="B95" s="20"/>
+      <c r="K94" s="49">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -5090,17 +5096,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="39">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40">
-        <f t="shared" si="0"/>
-        <v>45200</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="K95" s="49">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
@@ -5109,15 +5118,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="49">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <f t="shared" si="0"/>
-        <v>45231</v>
+        <f>EDATE(A94,1)</f>
+        <v>45170</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5133,10 +5146,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5152,10 +5165,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5171,8 +5184,11 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5187,8 +5203,11 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5203,7 +5222,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5219,7 +5238,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5235,7 +5254,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5251,7 +5270,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5267,7 +5286,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5283,7 +5302,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5299,7 +5318,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5315,7 +5334,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5331,7 +5350,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5347,7 +5366,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5363,7 +5382,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5379,7 +5398,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5395,7 +5414,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5411,7 +5430,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5427,7 +5446,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5443,7 +5462,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5459,7 +5478,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5475,7 +5494,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5491,7 +5510,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5507,7 +5526,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5523,7 +5542,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5539,7 +5558,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5555,7 +5574,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5571,7 +5590,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5587,7 +5606,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5603,21 +5622,53 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="41"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="43"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="43"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="15"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="43"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5634,10 +5685,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5660,34 +5711,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="D9:I9"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5708,7 +5759,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5728,7 +5779,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5750,7 +5801,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5758,7 +5809,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5771,7 +5822,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -5788,7 +5839,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5823,7 +5874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5847,7 +5898,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5869,7 +5920,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5891,7 +5942,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5915,7 +5966,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -5937,7 +5988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43405</v>
       </c>
@@ -5961,7 +6012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>54</v>
       </c>
@@ -5979,7 +6030,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43466</v>
       </c>
@@ -6003,7 +6054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43497</v>
       </c>
@@ -6027,7 +6078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43647</v>
       </c>
@@ -6051,7 +6102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
@@ -6069,7 +6120,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6093,7 +6144,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>51</v>
@@ -6115,7 +6166,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -6137,7 +6188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -6159,7 +6210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -6183,7 +6234,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -6207,7 +6258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44057</v>
       </c>
@@ -6227,7 +6278,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44064</v>
       </c>
@@ -6251,7 +6302,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -6275,7 +6326,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>75</v>
@@ -6295,7 +6346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6317,7 +6368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -6339,7 +6390,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>82</v>
       </c>
@@ -6357,7 +6408,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44805</v>
       </c>
@@ -6381,7 +6432,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44835</v>
       </c>
@@ -6405,7 +6456,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6421,7 +6472,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6437,7 +6488,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6453,7 +6504,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6469,7 +6520,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6485,7 +6536,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6501,7 +6552,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6517,7 +6568,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6533,7 +6584,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6549,7 +6600,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6565,7 +6616,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6581,7 +6632,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6597,7 +6648,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6613,7 +6664,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6629,7 +6680,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6645,7 +6696,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6661,7 +6712,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6677,7 +6728,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6693,7 +6744,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6709,7 +6760,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6725,7 +6776,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6741,7 +6792,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6757,7 +6808,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6773,7 +6824,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6789,7 +6840,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6805,7 +6856,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6821,7 +6872,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6837,7 +6888,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6853,7 +6904,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6869,7 +6920,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6885,7 +6936,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6901,7 +6952,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6917,7 +6968,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6933,7 +6984,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6949,7 +7000,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6965,7 +7016,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6981,7 +7032,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6997,7 +7048,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7013,7 +7064,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7029,7 +7080,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7045,7 +7096,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7061,7 +7112,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -7092,10 +7143,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7118,28 +7169,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7152,7 +7203,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7181,7 +7232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>15.625</v>
       </c>
@@ -7205,17 +7256,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7236,7 +7287,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7263,7 +7314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7289,7 +7340,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7315,7 +7366,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7341,7 +7392,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7367,7 +7418,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7393,7 +7444,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7419,7 +7470,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7445,7 +7496,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7465,7 +7516,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7485,7 +7536,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7505,7 +7556,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7526,7 +7577,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7547,7 +7598,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7568,7 +7619,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7589,7 +7640,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7610,7 +7661,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7631,7 +7682,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7652,7 +7703,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7673,7 +7724,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7694,7 +7745,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7715,7 +7766,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7736,7 +7787,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7757,7 +7808,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7778,7 +7829,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7799,7 +7850,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7820,7 +7871,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7841,7 +7892,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7862,7 +7913,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7883,7 +7934,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7904,7 +7955,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7925,7 +7976,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7934,7 +7985,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7943,7 +7994,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7952,7 +8003,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7961,7 +8012,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7970,7 +8021,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7979,7 +8030,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7988,7 +8039,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7997,7 +8048,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8006,7 +8057,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8015,7 +8066,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8024,7 +8075,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8033,7 +8084,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8042,7 +8093,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8051,7 +8102,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8060,7 +8111,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8069,7 +8120,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8078,7 +8129,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8087,7 +8138,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8096,7 +8147,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8105,7 +8156,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8114,7 +8165,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8123,7 +8174,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8132,7 +8183,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8141,7 +8192,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8150,7 +8201,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8159,7 +8210,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8168,7 +8219,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8177,7 +8228,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8186,7 +8237,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
